--- a/Android进阶之日常学习路线.xlsx
+++ b/Android进阶之日常学习路线.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="9675" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Android进阶" sheetId="1" r:id="rId1"/>
     <sheet name="Android 新知识点" sheetId="2" r:id="rId2"/>
     <sheet name="java 新知识点" sheetId="3" r:id="rId3"/>
+    <sheet name="电脑组装" sheetId="4" r:id="rId4"/>
+    <sheet name="Android新建项目需考虑的问题" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +29,6 @@
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,39 +132,228 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Android vector标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接：http://www.cnblogs.com/yuhanghzsd/p/5466846.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错不容易定位，复杂页面不好控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以右键module,new-&gt;vector asset选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动跳转到手机浏览器打开链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextView标签 autolink属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu主板套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/2121097.html</t>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪迪 240G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/1398969.html</t>
+  </si>
+  <si>
+    <t>希捷 1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/3843702.html</t>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/3705638.html</t>
+  </si>
+  <si>
+    <t>华硕（ASUS）DUAL-GTX1060-O3G 1569-1809MHz 3G/8GHz GDDR5 PCI-E3.0</t>
+  </si>
+  <si>
+    <t>金士顿DDR4 2400 8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5 7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安钛克（Antec）额定550W</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/1039361.html</t>
+  </si>
+  <si>
+    <t>散热器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冰400 CPU散热器</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/598827.html</t>
+  </si>
+  <si>
+    <t>机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存备选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/2939894.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/3701943.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美商海盗船(USCORSAIR) 复仇者LPX DDR4 2400 16GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android7.0行为变更
+通过FileProvider在应用间共享文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/lmj623565791/article/details/72859156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在官方7.0的以上的系统中，尝试传递 file://URI可能会触发FileUriExposedException（文件Uri暴露异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android6.0权限申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳GitHub案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/lmj623565791/article/details/50709663</t>
+  </si>
+  <si>
+    <t>参考链接/备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianshu.com/p/a51593817825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermissionGen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 富文本 SpannableString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.blog.csdn.net/zhujiangtaotaise/article/details/50463646</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolBar的封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/wk843620202/article/details/51851785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecycleVie嵌套ScrollView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollView要嵌套ListView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/Picasso_L/article/details/50324863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写ListView的onMeasure方法来实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写LayoutManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碰到的一些新的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android vector标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考链接：http://www.cnblogs.com/yuhanghzsd/p/5466846.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错不容易定位，复杂页面不好控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以右键module,new-&gt;vector asset选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动跳转到手机浏览器打开链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextView标签 autolink属性</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/harvic880925/article/details/39996643
+http://blog.csdn.net/harvic880925/article/details/39996643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 调试神器-Stetho(Facebook出品)的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/sbsujjbcy/article/details/45420475</t>
+  </si>
+  <si>
+    <t>基类封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +394,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,12 +436,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,9 +463,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,23 +792,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.125" style="1"/>
     <col min="5" max="5" width="71.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="21.125" style="1"/>
+    <col min="7" max="7" width="32" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,112 +820,222 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43034</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2" display="https://github.com/lovedise/PermissionGen"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
+    <row r="1" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -699,4 +1052,218 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>1799</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="11.625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:XFD5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>